--- a/2020/cursos/etica/Octavo/Listados Etica 8-2.xlsx
+++ b/2020/cursos/etica/Octavo/Listados Etica 8-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\etica\Octavo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F21AF6-7DC3-420F-8965-76F37945B5D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C6A0FD-081D-45EB-AFFC-580A0240D278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
+    <workbookView xWindow="2760" yWindow="1650" windowWidth="16440" windowHeight="13710" activeTab="1" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="41">
   <si>
     <t>Codigo</t>
   </si>
@@ -978,10 +978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F14E4E-6367-4BCF-88A7-647C3E1932AC}">
-  <dimension ref="A3:D43"/>
+  <dimension ref="A3:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,10 +990,10 @@
     <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1006,8 +1006,11 @@
       <c r="D3" s="8">
         <v>43980</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="8">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1625</v>
       </c>
@@ -1020,8 +1023,11 @@
       <c r="D4" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2005</v>
       </c>
@@ -1034,8 +1040,11 @@
       <c r="D5" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1890</v>
       </c>
@@ -1048,8 +1057,11 @@
       <c r="D6" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3862</v>
       </c>
@@ -1059,8 +1071,9 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>4028</v>
       </c>
@@ -1073,8 +1086,11 @@
       <c r="D8" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1926</v>
       </c>
@@ -1087,8 +1103,11 @@
       <c r="D9" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2385</v>
       </c>
@@ -1101,8 +1120,11 @@
       <c r="D10" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>3586</v>
       </c>
@@ -1115,8 +1137,9 @@
       <c r="D11" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3848</v>
       </c>
@@ -1126,8 +1149,9 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4283</v>
       </c>
@@ -1140,8 +1164,11 @@
       <c r="D13" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>3587</v>
       </c>
@@ -1154,8 +1181,11 @@
       <c r="D14" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2590</v>
       </c>
@@ -1165,8 +1195,9 @@
       <c r="C15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>3879</v>
       </c>
@@ -1179,8 +1210,9 @@
       <c r="D16" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2630</v>
       </c>
@@ -1190,8 +1222,9 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2283</v>
       </c>
@@ -1204,8 +1237,11 @@
       <c r="D18" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1970</v>
       </c>
@@ -1215,8 +1251,9 @@
       <c r="C19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1974</v>
       </c>
@@ -1226,8 +1263,9 @@
       <c r="C20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>704</v>
       </c>
@@ -1240,8 +1278,11 @@
       <c r="D21" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>4426</v>
       </c>
@@ -1254,8 +1295,11 @@
       <c r="D22" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>1898</v>
       </c>
@@ -1265,8 +1309,9 @@
       <c r="C23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>4427</v>
       </c>
@@ -1279,8 +1324,11 @@
       <c r="D24" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2306</v>
       </c>
@@ -1293,8 +1341,11 @@
       <c r="D25" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1973</v>
       </c>
@@ -1307,8 +1358,11 @@
       <c r="D26" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1971</v>
       </c>
@@ -1318,8 +1372,9 @@
       <c r="C27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>4029</v>
       </c>
@@ -1332,8 +1387,9 @@
       <c r="D28" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>3504</v>
       </c>
@@ -1346,8 +1402,11 @@
       <c r="D29" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>2639</v>
       </c>
@@ -1360,8 +1419,9 @@
       <c r="D30" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1938</v>
       </c>
@@ -1371,8 +1431,11 @@
       <c r="C31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1678</v>
       </c>
@@ -1385,8 +1448,11 @@
       <c r="D32" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>4030</v>
       </c>
@@ -1396,8 +1462,11 @@
       <c r="C33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>2333</v>
       </c>
@@ -1410,8 +1479,11 @@
       <c r="D34" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>718</v>
       </c>
@@ -1421,8 +1493,9 @@
       <c r="C35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1962</v>
       </c>
@@ -1432,8 +1505,9 @@
       <c r="C36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>2133</v>
       </c>
@@ -1446,8 +1520,11 @@
       <c r="D37" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>4284</v>
       </c>
@@ -1460,8 +1537,11 @@
       <c r="D38" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>1965</v>
       </c>
@@ -1474,8 +1554,11 @@
       <c r="D39" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E39" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7" t="s">
@@ -1485,16 +1568,20 @@
         <f>COUNTA(D4:D39)</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="6">
+        <f>COUNTA(E4:E39)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
     </row>

--- a/2020/cursos/etica/Octavo/Listados Etica 8-2.xlsx
+++ b/2020/cursos/etica/Octavo/Listados Etica 8-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\etica\Octavo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C6A0FD-081D-45EB-AFFC-580A0240D278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93B55DB-DDCB-4294-B165-19920C03C57D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1650" windowWidth="16440" windowHeight="13710" activeTab="1" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
   <si>
     <t>Codigo</t>
   </si>
@@ -206,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,9 +219,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -546,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:D39"/>
+  <dimension ref="A3:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,10 +554,10 @@
     <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -570,11 +567,17 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>43980</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="7">
+        <v>44001</v>
+      </c>
+      <c r="F3" s="7">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1625</v>
       </c>
@@ -584,8 +587,15 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2005</v>
       </c>
@@ -595,8 +605,17 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1890</v>
       </c>
@@ -606,8 +625,17 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3862</v>
       </c>
@@ -617,8 +645,13 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>4028</v>
       </c>
@@ -628,8 +661,17 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1926</v>
       </c>
@@ -639,8 +681,17 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2385</v>
       </c>
@@ -650,8 +701,15 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>3586</v>
       </c>
@@ -661,8 +719,15 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3848</v>
       </c>
@@ -672,8 +737,11 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4283</v>
       </c>
@@ -683,8 +751,17 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>3587</v>
       </c>
@@ -694,8 +771,17 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2590</v>
       </c>
@@ -705,8 +791,11 @@
       <c r="C15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>3879</v>
       </c>
@@ -716,8 +805,13 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2630</v>
       </c>
@@ -727,8 +821,11 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2283</v>
       </c>
@@ -738,8 +835,17 @@
       <c r="C18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1970</v>
       </c>
@@ -749,8 +855,11 @@
       <c r="C19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1974</v>
       </c>
@@ -760,8 +869,11 @@
       <c r="C20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>704</v>
       </c>
@@ -771,8 +883,15 @@
       <c r="C21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>4426</v>
       </c>
@@ -782,8 +901,17 @@
       <c r="C22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>1898</v>
       </c>
@@ -793,8 +921,11 @@
       <c r="C23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>4427</v>
       </c>
@@ -804,8 +935,17 @@
       <c r="C24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2306</v>
       </c>
@@ -815,8 +955,17 @@
       <c r="C25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1973</v>
       </c>
@@ -826,8 +975,17 @@
       <c r="C26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1971</v>
       </c>
@@ -837,8 +995,11 @@
       <c r="C27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>4029</v>
       </c>
@@ -848,8 +1009,13 @@
       <c r="C28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>3504</v>
       </c>
@@ -859,8 +1025,17 @@
       <c r="C29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>2639</v>
       </c>
@@ -870,8 +1045,15 @@
       <c r="C30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1938</v>
       </c>
@@ -881,8 +1063,15 @@
       <c r="C31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1678</v>
       </c>
@@ -892,8 +1081,17 @@
       <c r="C32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>4030</v>
       </c>
@@ -903,8 +1101,13 @@
       <c r="C33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>2333</v>
       </c>
@@ -914,8 +1117,15 @@
       <c r="C34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>718</v>
       </c>
@@ -925,8 +1135,11 @@
       <c r="C35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1962</v>
       </c>
@@ -936,8 +1149,11 @@
       <c r="C36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>2133</v>
       </c>
@@ -947,8 +1163,17 @@
       <c r="C37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>4284</v>
       </c>
@@ -958,8 +1183,17 @@
       <c r="C38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>1965</v>
       </c>
@@ -968,6 +1202,29 @@
       </c>
       <c r="C39" t="s">
         <v>38</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D40" s="5">
+        <f>COUNTA(D4:D39)</f>
+        <v>24</v>
+      </c>
+      <c r="E40" s="5">
+        <f>COUNTA(E4:E39)</f>
+        <v>22</v>
+      </c>
+      <c r="F40" s="5">
+        <f>COUNTA(F4:F39)</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -978,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F14E4E-6367-4BCF-88A7-647C3E1932AC}">
-  <dimension ref="A3:E43"/>
+  <dimension ref="A3:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,10 +1247,10 @@
     <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1003,14 +1260,8 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8">
-        <v>43980</v>
-      </c>
-      <c r="E3" s="8">
-        <v>44001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1625</v>
       </c>
@@ -1020,14 +1271,8 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2005</v>
       </c>
@@ -1037,14 +1282,8 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1890</v>
       </c>
@@ -1054,14 +1293,8 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3862</v>
       </c>
@@ -1071,9 +1304,8 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>4028</v>
       </c>
@@ -1083,14 +1315,8 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1926</v>
       </c>
@@ -1100,14 +1326,8 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2385</v>
       </c>
@@ -1117,14 +1337,8 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>3586</v>
       </c>
@@ -1134,12 +1348,8 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3848</v>
       </c>
@@ -1149,9 +1359,8 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4283</v>
       </c>
@@ -1161,14 +1370,8 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>3587</v>
       </c>
@@ -1178,14 +1381,8 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2590</v>
       </c>
@@ -1195,9 +1392,8 @@
       <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>3879</v>
       </c>
@@ -1207,12 +1403,8 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2630</v>
       </c>
@@ -1222,9 +1414,8 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2283</v>
       </c>
@@ -1234,14 +1425,8 @@
       <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1970</v>
       </c>
@@ -1251,9 +1436,8 @@
       <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1974</v>
       </c>
@@ -1263,9 +1447,8 @@
       <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>704</v>
       </c>
@@ -1275,14 +1458,8 @@
       <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>4426</v>
       </c>
@@ -1292,14 +1469,8 @@
       <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>1898</v>
       </c>
@@ -1309,9 +1480,8 @@
       <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>4427</v>
       </c>
@@ -1321,14 +1491,8 @@
       <c r="C24" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2306</v>
       </c>
@@ -1338,14 +1502,8 @@
       <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1973</v>
       </c>
@@ -1355,14 +1513,8 @@
       <c r="C26" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1971</v>
       </c>
@@ -1372,9 +1524,8 @@
       <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>4029</v>
       </c>
@@ -1384,12 +1535,8 @@
       <c r="C28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>3504</v>
       </c>
@@ -1399,14 +1546,8 @@
       <c r="C29" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>2639</v>
       </c>
@@ -1416,12 +1557,8 @@
       <c r="C30" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1938</v>
       </c>
@@ -1431,11 +1568,8 @@
       <c r="C31" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1678</v>
       </c>
@@ -1445,14 +1579,8 @@
       <c r="C32" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>4030</v>
       </c>
@@ -1462,11 +1590,8 @@
       <c r="C33" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>2333</v>
       </c>
@@ -1476,14 +1601,8 @@
       <c r="C34" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>718</v>
       </c>
@@ -1493,9 +1612,8 @@
       <c r="C35" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1962</v>
       </c>
@@ -1505,9 +1623,8 @@
       <c r="C36" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>2133</v>
       </c>
@@ -1517,14 +1634,8 @@
       <c r="C37" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>4284</v>
       </c>
@@ -1534,14 +1645,8 @@
       <c r="C38" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>1965</v>
       </c>
@@ -1551,37 +1656,23 @@
       <c r="C39" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7" t="s">
+    </row>
+    <row r="40" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="6">
-        <f>COUNTA(D4:D39)</f>
-        <v>24</v>
-      </c>
-      <c r="E40" s="6">
-        <f>COUNTA(E4:E39)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
     </row>

--- a/2020/cursos/etica/Octavo/Listados Etica 8-2.xlsx
+++ b/2020/cursos/etica/Octavo/Listados Etica 8-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\etica\Octavo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93B55DB-DDCB-4294-B165-19920C03C57D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76678762-339B-4FD1-ACB3-83015A39EB4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="41">
   <si>
     <t>Codigo</t>
   </si>
@@ -161,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +181,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,6 +234,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -545,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
   <dimension ref="A3:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1115,9 @@
       <c r="E33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -1123,7 +1135,9 @@
       <c r="E34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -1224,7 +1238,7 @@
       </c>
       <c r="F40" s="5">
         <f>COUNTA(F4:F39)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/2020/cursos/etica/Octavo/Listados Etica 8-2.xlsx
+++ b/2020/cursos/etica/Octavo/Listados Etica 8-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\etica\Octavo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76678762-339B-4FD1-ACB3-83015A39EB4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912A077F-2932-4779-AFE5-A0FA915C07A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="41">
   <si>
     <t>Codigo</t>
   </si>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,6 +237,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:F40"/>
+  <dimension ref="A3:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,10 +567,11 @@
     <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -586,8 +590,11 @@
       <c r="F3" s="7">
         <v>44022</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="7">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1625</v>
       </c>
@@ -604,8 +611,11 @@
         <v>39</v>
       </c>
       <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2005</v>
       </c>
@@ -624,8 +634,9 @@
       <c r="F5" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1890</v>
       </c>
@@ -644,8 +655,9 @@
       <c r="F6" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3862</v>
       </c>
@@ -660,8 +672,11 @@
       <c r="F7" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>4028</v>
       </c>
@@ -680,8 +695,11 @@
       <c r="F8" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1926</v>
       </c>
@@ -700,8 +718,11 @@
       <c r="F9" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2385</v>
       </c>
@@ -718,8 +739,11 @@
         <v>39</v>
       </c>
       <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>3586</v>
       </c>
@@ -736,8 +760,9 @@
       <c r="F11" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3848</v>
       </c>
@@ -750,8 +775,9 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4283</v>
       </c>
@@ -770,8 +796,11 @@
       <c r="F13" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>3587</v>
       </c>
@@ -790,8 +819,11 @@
       <c r="F14" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2590</v>
       </c>
@@ -804,8 +836,9 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>3879</v>
       </c>
@@ -820,8 +853,9 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2630</v>
       </c>
@@ -834,8 +868,9 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2283</v>
       </c>
@@ -854,8 +889,11 @@
       <c r="F18" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1970</v>
       </c>
@@ -868,8 +906,9 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1974</v>
       </c>
@@ -882,8 +921,9 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>704</v>
       </c>
@@ -900,8 +940,11 @@
         <v>39</v>
       </c>
       <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>4426</v>
       </c>
@@ -920,8 +963,11 @@
       <c r="F22" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>1898</v>
       </c>
@@ -934,8 +980,9 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>4427</v>
       </c>
@@ -954,8 +1001,11 @@
       <c r="F24" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2306</v>
       </c>
@@ -974,8 +1024,11 @@
       <c r="F25" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1973</v>
       </c>
@@ -994,8 +1047,9 @@
       <c r="F26" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1971</v>
       </c>
@@ -1008,8 +1062,9 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>4029</v>
       </c>
@@ -1024,8 +1079,11 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>3504</v>
       </c>
@@ -1044,8 +1102,11 @@
       <c r="F29" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>2639</v>
       </c>
@@ -1062,8 +1123,11 @@
       <c r="F30" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1938</v>
       </c>
@@ -1080,8 +1144,11 @@
       <c r="F31" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1678</v>
       </c>
@@ -1100,8 +1167,9 @@
       <c r="F32" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>4030</v>
       </c>
@@ -1118,8 +1186,11 @@
       <c r="F33" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>2333</v>
       </c>
@@ -1138,8 +1209,11 @@
       <c r="F34" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>718</v>
       </c>
@@ -1152,8 +1226,9 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1962</v>
       </c>
@@ -1166,8 +1241,9 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>2133</v>
       </c>
@@ -1186,8 +1262,11 @@
       <c r="F37" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>4284</v>
       </c>
@@ -1206,8 +1285,11 @@
       <c r="F38" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>1965</v>
       </c>
@@ -1226,8 +1308,11 @@
       <c r="F39" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G39" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D40" s="5">
         <f>COUNTA(D4:D39)</f>
         <v>24</v>
@@ -1239,6 +1324,10 @@
       <c r="F40" s="5">
         <f>COUNTA(F4:F39)</f>
         <v>22</v>
+      </c>
+      <c r="G40" s="5">
+        <f>COUNTA(G4:G39)</f>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
